--- a/biology/Botanique/Porphyrellus/Porphyrellus.xlsx
+++ b/biology/Botanique/Porphyrellus/Porphyrellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porphyrellus est un genre de champignons de la famille des Boletaceae. Ils ressemblent aux Tylopilus mais leurs sporophores sont plus sombres. Les espèces sont quasi toutes redistribuées dans différents genres.[Par qui ?]
-Selon Index Fungorum[1], ce genre serait un synonyme de Tylopilus, mais pas selon MycoBank[2]. 
+Selon Index Fungorum, ce genre serait un synonyme de Tylopilus, mais pas selon MycoBank. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Porphyrellus E.-J. Gilbert, 1931
 Basé sur le l'espèce Porphyrellus pseudoscaber européenne qui invalide Porphyrellus porphyrosporus[pas clair]. La définition du genre devrait probablement évoluer.[précision nécessaire]
@@ -544,7 +558,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporophore : genre surtout utilisé pour les taxons de couleur sombre, placé dans Tylopilus avec des spores de couleur brun très foncé à sombre-rosâtre[incompréhensible]. Ils sont souvent cyanescents et/ou roussâtres puis nigrescents.
 Hyménium jaune verdâtre pâle à presque noir. 
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement dans les régions tempérées nord (une espèce en Europe, plusieurs dans l'est de l'Amérique du Nord, l'Asie Est) et quelques-unes en Australie et en Nouvelle-Zélande.[incompréhensible]
 Mycorhizes avec les Pinacées, Fagacées, Myrtacées, Casuarinacées, et peut-être les Diptérocarpacées.
@@ -609,10 +627,12 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1984[3][réf. incomplète], le classement des Boletales précise que Porphyrellus brunneus est bien une espèce de la famille des Boletaceae, mais ne l'associe à aucun genre ou groupe[pas clair].
-Un autre recherche est en cours[pas clair][4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1984[réf. incomplète], le classement des Boletales précise que Porphyrellus brunneus est bien une espèce de la famille des Boletaceae, mais ne l'associe à aucun genre ou groupe[pas clair].
+Un autre recherche est en cours[pas clair].
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Porphyrellus alveolatus R. Heim &amp; Perr.-Bertr. 1964 &gt; synonyme d'Heimioporus alveolatus (R. Heim &amp; Perr.-Bertr.) E. Horak 2004
 Porphyrellus brunneus McNabb 1967 &gt; synonyme de Tylopilus brunneus (McNabb) Wolfe 1980
@@ -681,9 +703,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 octobre 2013)[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 octobre 2013) :
 Porphyrellus atrofuscus
 Porphyrellus cyaneotinctus
 Porphyrellus formosanus
@@ -692,7 +716,7 @@
 Porphyrellus pacificus
 Porphyrellus umbrosus
 Porphyrellus zaragozae
-Selon MycoBank                                            (28 octobre 2013)[2] :
+Selon MycoBank                                            (28 octobre 2013) :
 Porphyrellus alboater,
 Porphyrellus alveolatus,
 Porphyrellus amylosporus,
@@ -731,7 +755,7 @@
 Porphyrellus violaceiporus,
 Porphyrellus viscidus,
 Porphyrellus zaragozae
-Selon NCBI  (28 octobre 2013)[6] :
+Selon NCBI  (28 octobre 2013) :
 Porphyrellus brunneus
 Porphyrellus niger
 Porphyrellus novae-zelandiae
